--- a/flow_charts/data_types_audit.xlsx
+++ b/flow_charts/data_types_audit.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="26920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="26920" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="field_info" sheetId="1" r:id="rId1"/>
     <sheet name="DB Info" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
     <sheet name="Routes with JSON response" sheetId="6" r:id="rId4"/>
+    <sheet name="list of serializers" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DB Info'!$A$1:$D$519</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">field_info!$A$1:$C$210</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Routes with JSON response'!$A$1:$B$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet5!$A$1:$C$519</definedName>
     <definedName name="field_types">Sheet5!$A$2:$C$113</definedName>
   </definedNames>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2812" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3015" uniqueCount="563">
   <si>
     <t>Field Name</t>
   </si>
@@ -1308,9 +1310,6 @@
     <t>POST /event_users</t>
   </si>
   <si>
-    <t>POST /featured_posts</t>
-  </si>
-  <si>
     <t>POST /group_invites</t>
   </si>
   <si>
@@ -1363,6 +1362,363 @@
   </si>
   <si>
     <t>list of user objects</t>
+  </si>
+  <si>
+    <t>app_label</t>
+  </si>
+  <si>
+    <t>debug</t>
+  </si>
+  <si>
+    <t>event_bookmark_short</t>
+  </si>
+  <si>
+    <t>list_of_serializers.txt</t>
+  </si>
+  <si>
+    <t>app_admin_user</t>
+  </si>
+  <si>
+    <t>app_email</t>
+  </si>
+  <si>
+    <t>app_label_dictionary</t>
+  </si>
+  <si>
+    <t>app_label_page</t>
+  </si>
+  <si>
+    <t>app_setting_dependency</t>
+  </si>
+  <si>
+    <t>app_setting_option</t>
+  </si>
+  <si>
+    <t>app_setting_option_user</t>
+  </si>
+  <si>
+    <t>app_setting</t>
+  </si>
+  <si>
+    <t>app_support</t>
+  </si>
+  <si>
+    <t>banner_ad</t>
+  </si>
+  <si>
+    <t>banner_ad_short</t>
+  </si>
+  <si>
+    <t>country_short</t>
+  </si>
+  <si>
+    <t>event_bookmark</t>
+  </si>
+  <si>
+    <t>event_evaluation</t>
+  </si>
+  <si>
+    <t>event_follower_event</t>
+  </si>
+  <si>
+    <t>event_follower</t>
+  </si>
+  <si>
+    <t>event_follower_user</t>
+  </si>
+  <si>
+    <t>event_leaderboard</t>
+  </si>
+  <si>
+    <t>event_leaderboard_winners</t>
+  </si>
+  <si>
+    <t>event_note</t>
+  </si>
+  <si>
+    <t>event_note_short</t>
+  </si>
+  <si>
+    <t>event_note_tiny</t>
+  </si>
+  <si>
+    <t>event_session_evaluation</t>
+  </si>
+  <si>
+    <t>event_session_evaluation_short</t>
+  </si>
+  <si>
+    <t>event_session_micro</t>
+  </si>
+  <si>
+    <t>event_session_short</t>
+  </si>
+  <si>
+    <t>event_session_tiny</t>
+  </si>
+  <si>
+    <t>event_short</t>
+  </si>
+  <si>
+    <t>event_speaker_short</t>
+  </si>
+  <si>
+    <t>event_tiny</t>
+  </si>
+  <si>
+    <t>event_user_attendee</t>
+  </si>
+  <si>
+    <t>event_user_event</t>
+  </si>
+  <si>
+    <t>event_user_leaderboard_nano</t>
+  </si>
+  <si>
+    <t>event_user_schedule</t>
+  </si>
+  <si>
+    <t>event_user_schedule_short</t>
+  </si>
+  <si>
+    <t>event_user_tiny</t>
+  </si>
+  <si>
+    <t>event_user_user</t>
+  </si>
+  <si>
+    <t>event_user_with_notes</t>
+  </si>
+  <si>
+    <t>featured_post</t>
+  </si>
+  <si>
+    <t>group_featured_post</t>
+  </si>
+  <si>
+    <t>group_invite_group</t>
+  </si>
+  <si>
+    <t>group_invite</t>
+  </si>
+  <si>
+    <t>group_invite_user</t>
+  </si>
+  <si>
+    <t>group_member_group</t>
+  </si>
+  <si>
+    <t>group_member</t>
+  </si>
+  <si>
+    <t>group_member_user</t>
+  </si>
+  <si>
+    <t>group_request_group</t>
+  </si>
+  <si>
+    <t>group_request</t>
+  </si>
+  <si>
+    <t>group_request_user</t>
+  </si>
+  <si>
+    <t>group_short</t>
+  </si>
+  <si>
+    <t>group_tiny</t>
+  </si>
+  <si>
+    <t>group_type_short</t>
+  </si>
+  <si>
+    <t>message_attachment</t>
+  </si>
+  <si>
+    <t>message_conversation</t>
+  </si>
+  <si>
+    <t>navigation_left</t>
+  </si>
+  <si>
+    <t>navigation_right</t>
+  </si>
+  <si>
+    <t>post_attachment</t>
+  </si>
+  <si>
+    <t>post_comment_short</t>
+  </si>
+  <si>
+    <t>post_comments_attachment</t>
+  </si>
+  <si>
+    <t>post_contributor</t>
+  </si>
+  <si>
+    <t>post_feed</t>
+  </si>
+  <si>
+    <t>post_follower_post</t>
+  </si>
+  <si>
+    <t>post_follower</t>
+  </si>
+  <si>
+    <t>post_follower_user</t>
+  </si>
+  <si>
+    <t>post_hide</t>
+  </si>
+  <si>
+    <t>post_like_post</t>
+  </si>
+  <si>
+    <t>post_like</t>
+  </si>
+  <si>
+    <t>post_like_user</t>
+  </si>
+  <si>
+    <t>post_short</t>
+  </si>
+  <si>
+    <t>post_spam_report</t>
+  </si>
+  <si>
+    <t>post_tiny</t>
+  </si>
+  <si>
+    <t>sponsor_attachment</t>
+  </si>
+  <si>
+    <t>sponsor_short</t>
+  </si>
+  <si>
+    <t>sponsor_tiny</t>
+  </si>
+  <si>
+    <t>sponsor_user</t>
+  </si>
+  <si>
+    <t>user_connection_short</t>
+  </si>
+  <si>
+    <t>user_feed</t>
+  </si>
+  <si>
+    <t>user_hide</t>
+  </si>
+  <si>
+    <t>user_mention</t>
+  </si>
+  <si>
+    <t>user_micro</t>
+  </si>
+  <si>
+    <t>user_nano</t>
+  </si>
+  <si>
+    <t>user_post_options</t>
+  </si>
+  <si>
+    <t>user_role</t>
+  </si>
+  <si>
+    <t>user_short</t>
+  </si>
+  <si>
+    <t>user_tiny</t>
+  </si>
+  <si>
+    <t>EventUserWithNotes</t>
+  </si>
+  <si>
+    <t>EventUserAttendee</t>
+  </si>
+  <si>
+    <t>EventUserEvent</t>
+  </si>
+  <si>
+    <t>EventUserUser</t>
+  </si>
+  <si>
+    <t>DAN</t>
+  </si>
+  <si>
+    <t>GroupInviteGroup</t>
+  </si>
+  <si>
+    <t>UserNano</t>
+  </si>
+  <si>
+    <t>GroupInviteUser</t>
+  </si>
+  <si>
+    <t>GroupMemberGroup</t>
+  </si>
+  <si>
+    <t>GroupMemberUser</t>
+  </si>
+  <si>
+    <t>GroupRequestGroup</t>
+  </si>
+  <si>
+    <t>GroupRequestUser</t>
+  </si>
+  <si>
+    <t>MessageConversation</t>
+  </si>
+  <si>
+    <t>NavigationLeft</t>
+  </si>
+  <si>
+    <t>NavigationRight</t>
+  </si>
+  <si>
+    <t>PostFollowerUser</t>
+  </si>
+  <si>
+    <t>PostFollowerPost</t>
+  </si>
+  <si>
+    <t>PostLikePost</t>
+  </si>
+  <si>
+    <t>PostLikeUser</t>
+  </si>
+  <si>
+    <t>PostFeed</t>
+  </si>
+  <si>
+    <t>SponsorTiny</t>
+  </si>
+  <si>
+    <t>UserFeed</t>
+  </si>
+  <si>
+    <t>DEVISE</t>
+  </si>
+  <si>
+    <t>UserPostOptions</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>AppSettingOptionUser</t>
+  </si>
+  <si>
+    <t>EventBookmarkShort</t>
+  </si>
+  <si>
+    <t>EventNoteShort</t>
+  </si>
+  <si>
+    <t>EventUserScheduleShort</t>
+  </si>
+  <si>
+    <t>group_with_membership</t>
   </si>
 </sst>
 </file>
@@ -1414,8 +1770,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1431,15 +1793,21 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1769,11 +2137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1794,7 +2161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1806,7 +2173,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1815,7 +2182,7 @@
         <v>string</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>183</v>
       </c>
@@ -1826,7 +2193,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>184</v>
       </c>
@@ -1837,7 +2204,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>185</v>
       </c>
@@ -1848,7 +2215,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1857,7 +2224,7 @@
         <v>string</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>238</v>
       </c>
@@ -1868,7 +2235,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1891,18 +2258,18 @@
         <v>301</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>186</v>
       </c>
       <c r="B11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C11" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1914,7 +2281,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>187</v>
       </c>
@@ -1944,7 +2311,7 @@
         <v>300</v>
       </c>
       <c r="C15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1958,7 +2325,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1970,7 +2337,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1982,7 +2349,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1994,7 +2361,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -2006,7 +2373,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>240</v>
       </c>
@@ -2017,7 +2384,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -2029,7 +2396,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>241</v>
       </c>
@@ -2040,7 +2407,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>242</v>
       </c>
@@ -2051,7 +2418,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>243</v>
       </c>
@@ -2062,7 +2429,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>244</v>
       </c>
@@ -2073,7 +2440,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>189</v>
       </c>
@@ -2084,7 +2451,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>245</v>
       </c>
@@ -2095,7 +2462,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>190</v>
       </c>
@@ -2106,7 +2473,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>191</v>
       </c>
@@ -2117,18 +2484,18 @@
         <v>316</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>192</v>
       </c>
       <c r="B31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C31" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>246</v>
       </c>
@@ -2139,7 +2506,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>247</v>
       </c>
@@ -2150,7 +2517,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>193</v>
       </c>
@@ -2161,7 +2528,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -2173,7 +2540,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -2185,7 +2552,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>194</v>
       </c>
@@ -2196,7 +2563,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>248</v>
       </c>
@@ -2207,15 +2574,15 @@
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>249</v>
       </c>
       <c r="B39" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" hidden="1">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -2224,7 +2591,7 @@
         <v>string</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>93</v>
       </c>
@@ -2233,7 +2600,7 @@
         <v>integer</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -2242,7 +2609,7 @@
         <v>string</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>95</v>
       </c>
@@ -2251,7 +2618,7 @@
         <v>string</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -2260,7 +2627,7 @@
         <v>string</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>97</v>
       </c>
@@ -2269,7 +2636,7 @@
         <v>string</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -2278,7 +2645,7 @@
         <v>string</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -2287,7 +2654,7 @@
         <v>string</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>250</v>
       </c>
@@ -2295,18 +2662,18 @@
         <v>320</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>195</v>
       </c>
       <c r="B49" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C49" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>251</v>
       </c>
@@ -2314,7 +2681,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>252</v>
       </c>
@@ -2322,7 +2689,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -2330,18 +2697,18 @@
         <v>298</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>196</v>
       </c>
       <c r="B53" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C53" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>102</v>
       </c>
@@ -2350,7 +2717,7 @@
         <v>integer</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>103</v>
       </c>
@@ -2359,7 +2726,7 @@
         <v>boolean</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>253</v>
       </c>
@@ -2367,12 +2734,12 @@
         <v>298</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>197</v>
       </c>
       <c r="B57" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2383,10 +2750,10 @@
         <v>300</v>
       </c>
       <c r="C58" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" hidden="1">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>254</v>
       </c>
@@ -2394,15 +2761,15 @@
         <v>298</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>255</v>
       </c>
       <c r="B60" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" hidden="1">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>256</v>
       </c>
@@ -2418,7 +2785,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>106</v>
       </c>
@@ -2435,7 +2802,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>257</v>
       </c>
@@ -2459,7 +2826,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>259</v>
       </c>
@@ -2467,7 +2834,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>260</v>
       </c>
@@ -2483,7 +2850,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>109</v>
       </c>
@@ -2492,7 +2859,7 @@
         <v>string</v>
       </c>
     </row>
-    <row r="72" spans="1:2" hidden="1">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>261</v>
       </c>
@@ -2500,7 +2867,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="73" spans="1:2" hidden="1">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>110</v>
       </c>
@@ -2509,7 +2876,7 @@
         <v>string</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>198</v>
       </c>
@@ -2517,7 +2884,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="75" spans="1:2" hidden="1">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>111</v>
       </c>
@@ -2526,7 +2893,7 @@
         <v>string</v>
       </c>
     </row>
-    <row r="76" spans="1:2" hidden="1">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>262</v>
       </c>
@@ -2534,7 +2901,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="77" spans="1:2" hidden="1">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>112</v>
       </c>
@@ -2543,7 +2910,7 @@
         <v>integer</v>
       </c>
     </row>
-    <row r="78" spans="1:2" hidden="1">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>113</v>
       </c>
@@ -2560,12 +2927,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>199</v>
       </c>
       <c r="B80" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2576,7 +2943,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>114</v>
       </c>
@@ -2585,7 +2952,7 @@
         <v>integer</v>
       </c>
     </row>
-    <row r="83" spans="1:2" hidden="1">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>200</v>
       </c>
@@ -2609,7 +2976,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="86" spans="1:2" hidden="1">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>264</v>
       </c>
@@ -2617,7 +2984,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>201</v>
       </c>
@@ -2633,7 +3000,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="89" spans="1:2" hidden="1">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>265</v>
       </c>
@@ -2641,7 +3008,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>116</v>
       </c>
@@ -2650,7 +3017,7 @@
         <v>integer</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>117</v>
       </c>
@@ -2659,7 +3026,7 @@
         <v>boolean</v>
       </c>
     </row>
-    <row r="92" spans="1:2" hidden="1">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>118</v>
       </c>
@@ -2668,7 +3035,7 @@
         <v>boolean</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>266</v>
       </c>
@@ -2676,7 +3043,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>119</v>
       </c>
@@ -2685,7 +3052,7 @@
         <v>boolean</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>120</v>
       </c>
@@ -2694,7 +3061,7 @@
         <v>boolean</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>121</v>
       </c>
@@ -2703,7 +3070,7 @@
         <v>boolean</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>122</v>
       </c>
@@ -2712,7 +3079,7 @@
         <v>boolean</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>123</v>
       </c>
@@ -2721,7 +3088,7 @@
         <v>boolean</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>124</v>
       </c>
@@ -2730,7 +3097,7 @@
         <v>string</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>125</v>
       </c>
@@ -2739,7 +3106,7 @@
         <v>string</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>126</v>
       </c>
@@ -2748,7 +3115,7 @@
         <v>string</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>127</v>
       </c>
@@ -2757,15 +3124,15 @@
         <v>string</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>202</v>
       </c>
       <c r="B103" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" hidden="1">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>203</v>
       </c>
@@ -2773,15 +3140,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>204</v>
       </c>
       <c r="B105" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" hidden="1">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>130</v>
       </c>
@@ -2790,7 +3157,7 @@
         <v>string</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>132</v>
       </c>
@@ -2799,18 +3166,18 @@
         <v>string</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>205</v>
       </c>
       <c r="B108" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C108" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>206</v>
       </c>
@@ -2818,7 +3185,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>134</v>
       </c>
@@ -2827,7 +3194,7 @@
         <v>boolean</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>135</v>
       </c>
@@ -2836,7 +3203,7 @@
         <v>string</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>136</v>
       </c>
@@ -2845,23 +3212,23 @@
         <v>string</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>267</v>
       </c>
       <c r="B113" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" hidden="1">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>268</v>
       </c>
       <c r="B114" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" hidden="1">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>269</v>
       </c>
@@ -2869,7 +3236,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>138</v>
       </c>
@@ -2878,7 +3245,7 @@
         <v>integer</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>139</v>
       </c>
@@ -2887,7 +3254,7 @@
         <v>string</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>270</v>
       </c>
@@ -2898,7 +3265,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>140</v>
       </c>
@@ -2907,7 +3274,7 @@
         <v>integer</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>141</v>
       </c>
@@ -2916,7 +3283,7 @@
         <v>string</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>142</v>
       </c>
@@ -2925,7 +3292,7 @@
         <v>integer</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>143</v>
       </c>
@@ -2934,7 +3301,7 @@
         <v>integer</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>271</v>
       </c>
@@ -2945,12 +3312,12 @@
         <v>325</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>207</v>
       </c>
       <c r="B124" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2961,7 +3328,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>272</v>
       </c>
@@ -2969,7 +3336,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>145</v>
       </c>
@@ -2986,15 +3353,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="129" spans="1:2" hidden="1">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>208</v>
       </c>
       <c r="B129" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" hidden="1">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>146</v>
       </c>
@@ -3003,23 +3370,23 @@
         <v>integer</v>
       </c>
     </row>
-    <row r="131" spans="1:2" hidden="1">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>273</v>
       </c>
       <c r="B131" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" hidden="1">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>209</v>
       </c>
       <c r="B132" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" hidden="1">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>144</v>
       </c>
@@ -3044,7 +3411,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="136" spans="1:2" hidden="1">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>148</v>
       </c>
@@ -3053,7 +3420,7 @@
         <v>integer</v>
       </c>
     </row>
-    <row r="137" spans="1:2" hidden="1">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>210</v>
       </c>
@@ -3061,7 +3428,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="138" spans="1:2" hidden="1">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>152</v>
       </c>
@@ -3070,7 +3437,7 @@
         <v>string</v>
       </c>
     </row>
-    <row r="139" spans="1:2" hidden="1">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>154</v>
       </c>
@@ -3087,7 +3454,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="141" spans="1:2" hidden="1">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>155</v>
       </c>
@@ -3096,7 +3463,7 @@
         <v>string</v>
       </c>
     </row>
-    <row r="142" spans="1:2" hidden="1">
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>211</v>
       </c>
@@ -3104,7 +3471,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="143" spans="1:2" hidden="1">
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>212</v>
       </c>
@@ -3112,7 +3479,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="144" spans="1:2" hidden="1">
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>213</v>
       </c>
@@ -3120,7 +3487,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="145" spans="1:2" hidden="1">
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>214</v>
       </c>
@@ -3128,7 +3495,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="146" spans="1:2" hidden="1">
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>214</v>
       </c>
@@ -3136,7 +3503,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="147" spans="1:2" hidden="1">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>215</v>
       </c>
@@ -3144,7 +3511,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="148" spans="1:2" hidden="1">
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>216</v>
       </c>
@@ -3152,7 +3519,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="149" spans="1:2" hidden="1">
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>217</v>
       </c>
@@ -3160,7 +3527,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="150" spans="1:2" hidden="1">
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>217</v>
       </c>
@@ -3168,7 +3535,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="151" spans="1:2" hidden="1">
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>276</v>
       </c>
@@ -3176,7 +3543,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="152" spans="1:2" hidden="1">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>218</v>
       </c>
@@ -3184,7 +3551,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="153" spans="1:2" hidden="1">
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>219</v>
       </c>
@@ -3192,7 +3559,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="154" spans="1:2" hidden="1">
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>220</v>
       </c>
@@ -3200,7 +3567,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="155" spans="1:2" hidden="1">
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>221</v>
       </c>
@@ -3208,7 +3575,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="156" spans="1:2" hidden="1">
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>222</v>
       </c>
@@ -3216,7 +3583,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="157" spans="1:2" hidden="1">
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>222</v>
       </c>
@@ -3224,7 +3591,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="158" spans="1:2" hidden="1">
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>223</v>
       </c>
@@ -3232,7 +3599,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="159" spans="1:2" hidden="1">
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>224</v>
       </c>
@@ -3240,7 +3607,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="160" spans="1:2" hidden="1">
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>224</v>
       </c>
@@ -3248,7 +3615,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="161" spans="1:2" hidden="1">
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>225</v>
       </c>
@@ -3256,7 +3623,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="162" spans="1:2" hidden="1">
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>277</v>
       </c>
@@ -3264,7 +3631,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="163" spans="1:2" hidden="1">
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>226</v>
       </c>
@@ -3272,7 +3639,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="164" spans="1:2" hidden="1">
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>227</v>
       </c>
@@ -3280,7 +3647,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="165" spans="1:2" hidden="1">
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>228</v>
       </c>
@@ -3288,7 +3655,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="166" spans="1:2" hidden="1">
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>229</v>
       </c>
@@ -3296,7 +3663,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="167" spans="1:2" hidden="1">
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>230</v>
       </c>
@@ -3304,7 +3671,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="168" spans="1:2" hidden="1">
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>231</v>
       </c>
@@ -3312,7 +3679,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="169" spans="1:2" hidden="1">
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>232</v>
       </c>
@@ -3320,7 +3687,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="170" spans="1:2" hidden="1">
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>278</v>
       </c>
@@ -3328,7 +3695,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="171" spans="1:2" hidden="1">
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>233</v>
       </c>
@@ -3336,7 +3703,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="172" spans="1:2" hidden="1">
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>158</v>
       </c>
@@ -3345,7 +3712,7 @@
         <v>string</v>
       </c>
     </row>
-    <row r="173" spans="1:2" hidden="1">
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>159</v>
       </c>
@@ -3354,7 +3721,7 @@
         <v>boolean</v>
       </c>
     </row>
-    <row r="174" spans="1:2" hidden="1">
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>279</v>
       </c>
@@ -3378,7 +3745,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="177" spans="1:2" hidden="1">
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>160</v>
       </c>
@@ -3387,7 +3754,7 @@
         <v>integer</v>
       </c>
     </row>
-    <row r="178" spans="1:2" hidden="1">
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>281</v>
       </c>
@@ -3403,7 +3770,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="180" spans="1:2" hidden="1">
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>162</v>
       </c>
@@ -3412,7 +3779,7 @@
         <v>string</v>
       </c>
     </row>
-    <row r="181" spans="1:2" hidden="1">
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>163</v>
       </c>
@@ -3421,7 +3788,7 @@
         <v>string</v>
       </c>
     </row>
-    <row r="182" spans="1:2" hidden="1">
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>164</v>
       </c>
@@ -3430,7 +3797,7 @@
         <v>string</v>
       </c>
     </row>
-    <row r="183" spans="1:2" hidden="1">
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>166</v>
       </c>
@@ -3439,7 +3806,7 @@
         <v>string</v>
       </c>
     </row>
-    <row r="184" spans="1:2" hidden="1">
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>282</v>
       </c>
@@ -3447,7 +3814,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="185" spans="1:2" hidden="1">
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>168</v>
       </c>
@@ -3456,7 +3823,7 @@
         <v>string</v>
       </c>
     </row>
-    <row r="186" spans="1:2" hidden="1">
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>169</v>
       </c>
@@ -3465,7 +3832,7 @@
         <v>string</v>
       </c>
     </row>
-    <row r="187" spans="1:2" hidden="1">
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>234</v>
       </c>
@@ -3473,7 +3840,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="188" spans="1:2" hidden="1">
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>171</v>
       </c>
@@ -3482,7 +3849,7 @@
         <v>integer</v>
       </c>
     </row>
-    <row r="189" spans="1:2" hidden="1">
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>172</v>
       </c>
@@ -3491,7 +3858,7 @@
         <v>string</v>
       </c>
     </row>
-    <row r="190" spans="1:2" hidden="1">
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>283</v>
       </c>
@@ -3499,7 +3866,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="191" spans="1:2" hidden="1">
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>284</v>
       </c>
@@ -3507,15 +3874,15 @@
         <v>298</v>
       </c>
     </row>
-    <row r="192" spans="1:2" hidden="1">
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>285</v>
       </c>
       <c r="B192" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" hidden="1">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>286</v>
       </c>
@@ -3531,7 +3898,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="195" spans="1:3" hidden="1">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>288</v>
       </c>
@@ -3547,7 +3914,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="197" spans="1:3" hidden="1">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>290</v>
       </c>
@@ -3555,7 +3922,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="198" spans="1:3" hidden="1">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>174</v>
       </c>
@@ -3564,15 +3931,15 @@
         <v>integer</v>
       </c>
     </row>
-    <row r="199" spans="1:3" hidden="1">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>291</v>
       </c>
       <c r="B199" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" hidden="1">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
         <v>292</v>
       </c>
@@ -3580,23 +3947,23 @@
         <v>236</v>
       </c>
     </row>
-    <row r="201" spans="1:3" hidden="1">
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
         <v>293</v>
       </c>
       <c r="B201" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" hidden="1">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>294</v>
       </c>
       <c r="B202" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" hidden="1">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>295</v>
       </c>
@@ -3604,7 +3971,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="204" spans="1:3" hidden="1">
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
         <v>175</v>
       </c>
@@ -3613,7 +3980,7 @@
         <v>integer</v>
       </c>
     </row>
-    <row r="205" spans="1:3" hidden="1">
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
         <v>296</v>
       </c>
@@ -3621,7 +3988,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="206" spans="1:3" hidden="1">
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
         <v>235</v>
       </c>
@@ -3640,7 +4007,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="208" spans="1:3" hidden="1">
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
         <v>176</v>
       </c>
@@ -3652,7 +4019,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="209" spans="1:3" hidden="1">
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>180</v>
       </c>
@@ -3664,7 +4031,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="210" spans="1:3" hidden="1">
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
         <v>179</v>
       </c>
@@ -3677,13 +4044,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C210">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="array"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C210"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3697,7 +4058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D519"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" workbookViewId="0">
+    <sheetView topLeftCell="A123" workbookViewId="0">
       <selection activeCell="G163" sqref="G163"/>
     </sheetView>
   </sheetViews>
@@ -3773,7 +4134,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>181</v>
@@ -3787,7 +4148,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>181</v>
@@ -3801,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>181</v>
@@ -3815,7 +4176,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>181</v>
@@ -3843,7 +4204,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>181</v>
@@ -3857,7 +4218,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>181</v>
@@ -3871,7 +4232,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>181</v>
@@ -4039,7 +4400,7 @@
         <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>181</v>
@@ -4123,7 +4484,7 @@
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>181</v>
@@ -4949,7 +5310,7 @@
         <v>81</v>
       </c>
       <c r="C89" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>181</v>
@@ -4963,7 +5324,7 @@
         <v>79</v>
       </c>
       <c r="C90" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>181</v>
@@ -4977,7 +5338,7 @@
         <v>76</v>
       </c>
       <c r="C91" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>181</v>
@@ -4991,7 +5352,7 @@
         <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>181</v>
@@ -5005,7 +5366,7 @@
         <v>84</v>
       </c>
       <c r="C93" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>181</v>
@@ -5019,7 +5380,7 @@
         <v>24</v>
       </c>
       <c r="C94" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>181</v>
@@ -5033,7 +5394,7 @@
         <v>19</v>
       </c>
       <c r="C95" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>181</v>
@@ -5047,7 +5408,7 @@
         <v>35</v>
       </c>
       <c r="C96" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>181</v>
@@ -5061,7 +5422,7 @@
         <v>65</v>
       </c>
       <c r="C97" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>181</v>
@@ -5075,7 +5436,7 @@
         <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>181</v>
@@ -5089,7 +5450,7 @@
         <v>54</v>
       </c>
       <c r="C99" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>181</v>
@@ -5103,7 +5464,7 @@
         <v>69</v>
       </c>
       <c r="C100" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>181</v>
@@ -5117,7 +5478,7 @@
         <v>59</v>
       </c>
       <c r="C101" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>181</v>
@@ -5131,7 +5492,7 @@
         <v>57</v>
       </c>
       <c r="C102" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>181</v>
@@ -5145,7 +5506,7 @@
         <v>60</v>
       </c>
       <c r="C103" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>181</v>
@@ -5159,7 +5520,7 @@
         <v>62</v>
       </c>
       <c r="C104" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>181</v>
@@ -5173,7 +5534,7 @@
         <v>66</v>
       </c>
       <c r="C105" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>181</v>
@@ -5187,7 +5548,7 @@
         <v>34</v>
       </c>
       <c r="C106" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>181</v>
@@ -5201,7 +5562,7 @@
         <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>181</v>
@@ -5215,7 +5576,7 @@
         <v>51</v>
       </c>
       <c r="C108" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>181</v>
@@ -5229,7 +5590,7 @@
         <v>40</v>
       </c>
       <c r="C109" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>181</v>
@@ -5243,7 +5604,7 @@
         <v>29</v>
       </c>
       <c r="C110" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>181</v>
@@ -5257,7 +5618,7 @@
         <v>82</v>
       </c>
       <c r="C111" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>181</v>
@@ -5271,7 +5632,7 @@
         <v>72</v>
       </c>
       <c r="C112" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>181</v>
@@ -5285,7 +5646,7 @@
         <v>75</v>
       </c>
       <c r="C113" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>181</v>
@@ -5299,7 +5660,7 @@
         <v>44</v>
       </c>
       <c r="C114" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>181</v>
@@ -5313,7 +5674,7 @@
         <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>181</v>
@@ -5327,7 +5688,7 @@
         <v>70</v>
       </c>
       <c r="C116" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>181</v>
@@ -5341,7 +5702,7 @@
         <v>80</v>
       </c>
       <c r="C117" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>181</v>
@@ -5355,7 +5716,7 @@
         <v>78</v>
       </c>
       <c r="C118" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>181</v>
@@ -5369,7 +5730,7 @@
         <v>77</v>
       </c>
       <c r="C119" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>181</v>
@@ -5383,7 +5744,7 @@
         <v>73</v>
       </c>
       <c r="C120" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>181</v>
@@ -5397,7 +5758,7 @@
         <v>83</v>
       </c>
       <c r="C121" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>181</v>
@@ -5411,7 +5772,7 @@
         <v>46</v>
       </c>
       <c r="C122" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>181</v>
@@ -5425,7 +5786,7 @@
         <v>38</v>
       </c>
       <c r="C123" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>181</v>
@@ -5439,7 +5800,7 @@
         <v>36</v>
       </c>
       <c r="C124" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>181</v>
@@ -5453,7 +5814,7 @@
         <v>52</v>
       </c>
       <c r="C125" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>181</v>
@@ -5467,7 +5828,7 @@
         <v>49</v>
       </c>
       <c r="C126" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>181</v>
@@ -5481,7 +5842,7 @@
         <v>32</v>
       </c>
       <c r="C127" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>181</v>
@@ -5495,7 +5856,7 @@
         <v>63</v>
       </c>
       <c r="C128" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>181</v>
@@ -5509,7 +5870,7 @@
         <v>67</v>
       </c>
       <c r="C129" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>181</v>
@@ -5523,7 +5884,7 @@
         <v>61</v>
       </c>
       <c r="C130" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>181</v>
@@ -5537,7 +5898,7 @@
         <v>56</v>
       </c>
       <c r="C131" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>181</v>
@@ -5551,7 +5912,7 @@
         <v>58</v>
       </c>
       <c r="C132" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>181</v>
@@ -5565,7 +5926,7 @@
         <v>37</v>
       </c>
       <c r="C133" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>181</v>
@@ -5579,7 +5940,7 @@
         <v>55</v>
       </c>
       <c r="C134" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>181</v>
@@ -5593,7 +5954,7 @@
         <v>64</v>
       </c>
       <c r="C135" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>181</v>
@@ -5607,7 +5968,7 @@
         <v>43</v>
       </c>
       <c r="C136" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>181</v>
@@ -5621,7 +5982,7 @@
         <v>50</v>
       </c>
       <c r="C137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>181</v>
@@ -5635,7 +5996,7 @@
         <v>86</v>
       </c>
       <c r="C138" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>181</v>
@@ -5649,7 +6010,7 @@
         <v>85</v>
       </c>
       <c r="C139" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>181</v>
@@ -5663,7 +6024,7 @@
         <v>71</v>
       </c>
       <c r="C140" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>181</v>
@@ -5677,7 +6038,7 @@
         <v>74</v>
       </c>
       <c r="C141" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>181</v>
@@ -5691,7 +6052,7 @@
         <v>11</v>
       </c>
       <c r="C142" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>181</v>
@@ -5733,7 +6094,7 @@
         <v>23</v>
       </c>
       <c r="C145" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>181</v>
@@ -5887,7 +6248,7 @@
         <v>24</v>
       </c>
       <c r="C156" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>181</v>
@@ -5901,7 +6262,7 @@
         <v>59</v>
       </c>
       <c r="C157" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>181</v>
@@ -5915,7 +6276,7 @@
         <v>57</v>
       </c>
       <c r="C158" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>181</v>
@@ -5929,7 +6290,7 @@
         <v>62</v>
       </c>
       <c r="C159" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>181</v>
@@ -5943,7 +6304,7 @@
         <v>51</v>
       </c>
       <c r="C160" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>181</v>
@@ -5957,7 +6318,7 @@
         <v>40</v>
       </c>
       <c r="C161" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>181</v>
@@ -5971,7 +6332,7 @@
         <v>82</v>
       </c>
       <c r="C162" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>181</v>
@@ -5985,7 +6346,7 @@
         <v>37</v>
       </c>
       <c r="C163" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>181</v>
@@ -5999,7 +6360,7 @@
         <v>68</v>
       </c>
       <c r="C164" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>181</v>
@@ -6125,7 +6486,7 @@
         <v>69</v>
       </c>
       <c r="C173" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>181</v>
@@ -6139,7 +6500,7 @@
         <v>13</v>
       </c>
       <c r="C174" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>181</v>
@@ -6153,7 +6514,7 @@
         <v>19</v>
       </c>
       <c r="C175" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>181</v>
@@ -6167,7 +6528,7 @@
         <v>59</v>
       </c>
       <c r="C176" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>181</v>
@@ -6181,7 +6542,7 @@
         <v>57</v>
       </c>
       <c r="C177" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>181</v>
@@ -6195,7 +6556,7 @@
         <v>60</v>
       </c>
       <c r="C178" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>181</v>
@@ -6209,7 +6570,7 @@
         <v>66</v>
       </c>
       <c r="C179" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>181</v>
@@ -6223,7 +6584,7 @@
         <v>40</v>
       </c>
       <c r="C180" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>181</v>
@@ -6237,7 +6598,7 @@
         <v>82</v>
       </c>
       <c r="C181" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>181</v>
@@ -6251,7 +6612,7 @@
         <v>44</v>
       </c>
       <c r="C182" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>181</v>
@@ -6265,7 +6626,7 @@
         <v>36</v>
       </c>
       <c r="C183" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>181</v>
@@ -6279,7 +6640,7 @@
         <v>37</v>
       </c>
       <c r="C184" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>181</v>
@@ -6293,7 +6654,7 @@
         <v>43</v>
       </c>
       <c r="C185" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>181</v>
@@ -6321,7 +6682,7 @@
         <v>66</v>
       </c>
       <c r="C187" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>181</v>
@@ -6335,7 +6696,7 @@
         <v>44</v>
       </c>
       <c r="C188" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>181</v>
@@ -6349,7 +6710,7 @@
         <v>54</v>
       </c>
       <c r="C189" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>181</v>
@@ -6363,7 +6724,7 @@
         <v>34</v>
       </c>
       <c r="C190" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>181</v>
@@ -6377,7 +6738,7 @@
         <v>51</v>
       </c>
       <c r="C191" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>181</v>
@@ -6391,7 +6752,7 @@
         <v>29</v>
       </c>
       <c r="C192" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>181</v>
@@ -6405,7 +6766,7 @@
         <v>75</v>
       </c>
       <c r="C193" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>181</v>
@@ -6419,7 +6780,7 @@
         <v>37</v>
       </c>
       <c r="C194" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>181</v>
@@ -6433,7 +6794,7 @@
         <v>54</v>
       </c>
       <c r="C195" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>181</v>
@@ -6447,7 +6808,7 @@
         <v>34</v>
       </c>
       <c r="C196" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>181</v>
@@ -6461,7 +6822,7 @@
         <v>54</v>
       </c>
       <c r="C197" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>181</v>
@@ -6475,7 +6836,7 @@
         <v>34</v>
       </c>
       <c r="C198" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>181</v>
@@ -6489,7 +6850,7 @@
         <v>72</v>
       </c>
       <c r="C199" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>181</v>
@@ -6503,7 +6864,7 @@
         <v>75</v>
       </c>
       <c r="C200" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>181</v>
@@ -6587,7 +6948,7 @@
         <v>19</v>
       </c>
       <c r="C206" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>181</v>
@@ -6601,7 +6962,7 @@
         <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>181</v>
@@ -6615,7 +6976,7 @@
         <v>80</v>
       </c>
       <c r="C208" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>181</v>
@@ -6629,7 +6990,7 @@
         <v>78</v>
       </c>
       <c r="C209" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>181</v>
@@ -6643,7 +7004,7 @@
         <v>77</v>
       </c>
       <c r="C210" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>181</v>
@@ -6657,7 +7018,7 @@
         <v>36</v>
       </c>
       <c r="C211" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>181</v>
@@ -6671,7 +7032,7 @@
         <v>37</v>
       </c>
       <c r="C212" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>181</v>
@@ -6685,7 +7046,7 @@
         <v>43</v>
       </c>
       <c r="C213" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>181</v>
@@ -6699,7 +7060,7 @@
         <v>36</v>
       </c>
       <c r="C214" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>181</v>
@@ -6713,7 +7074,7 @@
         <v>36</v>
       </c>
       <c r="C215" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>181</v>
@@ -6727,7 +7088,7 @@
         <v>83</v>
       </c>
       <c r="C216" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>181</v>
@@ -6741,7 +7102,7 @@
         <v>81</v>
       </c>
       <c r="C217" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>181</v>
@@ -6755,7 +7116,7 @@
         <v>79</v>
       </c>
       <c r="C218" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>181</v>
@@ -6769,7 +7130,7 @@
         <v>76</v>
       </c>
       <c r="C219" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>181</v>
@@ -6783,7 +7144,7 @@
         <v>16</v>
       </c>
       <c r="C220" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>181</v>
@@ -6797,7 +7158,7 @@
         <v>13</v>
       </c>
       <c r="C221" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>181</v>
@@ -6811,7 +7172,7 @@
         <v>84</v>
       </c>
       <c r="C222" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>181</v>
@@ -6825,7 +7186,7 @@
         <v>23</v>
       </c>
       <c r="C223" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>181</v>
@@ -6839,7 +7200,7 @@
         <v>24</v>
       </c>
       <c r="C224" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>181</v>
@@ -6853,7 +7214,7 @@
         <v>53</v>
       </c>
       <c r="C225" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>181</v>
@@ -6867,7 +7228,7 @@
         <v>19</v>
       </c>
       <c r="C226" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>181</v>
@@ -6881,7 +7242,7 @@
         <v>35</v>
       </c>
       <c r="C227" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>181</v>
@@ -6895,7 +7256,7 @@
         <v>65</v>
       </c>
       <c r="C228" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>181</v>
@@ -6909,7 +7270,7 @@
         <v>6</v>
       </c>
       <c r="C229" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>181</v>
@@ -6923,7 +7284,7 @@
         <v>54</v>
       </c>
       <c r="C230" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>181</v>
@@ -6937,7 +7298,7 @@
         <v>69</v>
       </c>
       <c r="C231" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>181</v>
@@ -6951,7 +7312,7 @@
         <v>59</v>
       </c>
       <c r="C232" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>181</v>
@@ -6965,7 +7326,7 @@
         <v>57</v>
       </c>
       <c r="C233" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>181</v>
@@ -6979,7 +7340,7 @@
         <v>60</v>
       </c>
       <c r="C234" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>181</v>
@@ -6993,7 +7354,7 @@
         <v>62</v>
       </c>
       <c r="C235" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>181</v>
@@ -7007,7 +7368,7 @@
         <v>66</v>
       </c>
       <c r="C236" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>181</v>
@@ -7021,7 +7382,7 @@
         <v>34</v>
       </c>
       <c r="C237" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>181</v>
@@ -7035,7 +7396,7 @@
         <v>15</v>
       </c>
       <c r="C238" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>181</v>
@@ -7049,7 +7410,7 @@
         <v>51</v>
       </c>
       <c r="C239" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>181</v>
@@ -7063,7 +7424,7 @@
         <v>40</v>
       </c>
       <c r="C240" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>181</v>
@@ -7077,7 +7438,7 @@
         <v>29</v>
       </c>
       <c r="C241" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>181</v>
@@ -7091,7 +7452,7 @@
         <v>82</v>
       </c>
       <c r="C242" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>181</v>
@@ -7105,7 +7466,7 @@
         <v>72</v>
       </c>
       <c r="C243" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>181</v>
@@ -7119,7 +7480,7 @@
         <v>75</v>
       </c>
       <c r="C244" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>181</v>
@@ -7133,7 +7494,7 @@
         <v>44</v>
       </c>
       <c r="C245" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>181</v>
@@ -7147,7 +7508,7 @@
         <v>9</v>
       </c>
       <c r="C246" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>181</v>
@@ -7161,7 +7522,7 @@
         <v>70</v>
       </c>
       <c r="C247" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>181</v>
@@ -7175,7 +7536,7 @@
         <v>80</v>
       </c>
       <c r="C248" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>181</v>
@@ -7189,7 +7550,7 @@
         <v>78</v>
       </c>
       <c r="C249" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>181</v>
@@ -7203,7 +7564,7 @@
         <v>77</v>
       </c>
       <c r="C250" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>181</v>
@@ -7217,7 +7578,7 @@
         <v>73</v>
       </c>
       <c r="C251" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>181</v>
@@ -7231,7 +7592,7 @@
         <v>83</v>
       </c>
       <c r="C252" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>181</v>
@@ -7245,7 +7606,7 @@
         <v>46</v>
       </c>
       <c r="C253" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>181</v>
@@ -7259,7 +7620,7 @@
         <v>38</v>
       </c>
       <c r="C254" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>181</v>
@@ -7273,7 +7634,7 @@
         <v>36</v>
       </c>
       <c r="C255" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>181</v>
@@ -7287,7 +7648,7 @@
         <v>52</v>
       </c>
       <c r="C256" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>181</v>
@@ -7301,7 +7662,7 @@
         <v>49</v>
       </c>
       <c r="C257" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>181</v>
@@ -7315,7 +7676,7 @@
         <v>32</v>
       </c>
       <c r="C258" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>181</v>
@@ -7329,7 +7690,7 @@
         <v>63</v>
       </c>
       <c r="C259" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>181</v>
@@ -7343,7 +7704,7 @@
         <v>67</v>
       </c>
       <c r="C260" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>181</v>
@@ -7357,7 +7718,7 @@
         <v>61</v>
       </c>
       <c r="C261" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>181</v>
@@ -7371,7 +7732,7 @@
         <v>56</v>
       </c>
       <c r="C262" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>181</v>
@@ -7385,7 +7746,7 @@
         <v>58</v>
       </c>
       <c r="C263" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>181</v>
@@ -7399,7 +7760,7 @@
         <v>37</v>
       </c>
       <c r="C264" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>181</v>
@@ -7413,7 +7774,7 @@
         <v>55</v>
       </c>
       <c r="C265" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>181</v>
@@ -7427,7 +7788,7 @@
         <v>68</v>
       </c>
       <c r="C266" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>181</v>
@@ -7441,7 +7802,7 @@
         <v>64</v>
       </c>
       <c r="C267" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>181</v>
@@ -7455,7 +7816,7 @@
         <v>43</v>
       </c>
       <c r="C268" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>181</v>
@@ -7469,7 +7830,7 @@
         <v>50</v>
       </c>
       <c r="C269" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>181</v>
@@ -7483,7 +7844,7 @@
         <v>86</v>
       </c>
       <c r="C270" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>181</v>
@@ -7497,7 +7858,7 @@
         <v>85</v>
       </c>
       <c r="C271" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>181</v>
@@ -7511,7 +7872,7 @@
         <v>71</v>
       </c>
       <c r="C272" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>181</v>
@@ -7525,7 +7886,7 @@
         <v>74</v>
       </c>
       <c r="C273" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>181</v>
@@ -7539,7 +7900,7 @@
         <v>11</v>
       </c>
       <c r="C274" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>181</v>
@@ -7847,7 +8208,7 @@
         <v>46</v>
       </c>
       <c r="C296" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>181</v>
@@ -8127,7 +8488,7 @@
         <v>36</v>
       </c>
       <c r="C316" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>181</v>
@@ -8141,7 +8502,7 @@
         <v>50</v>
       </c>
       <c r="C317" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>181</v>
@@ -8197,7 +8558,7 @@
         <v>83</v>
       </c>
       <c r="C321" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>181</v>
@@ -8239,7 +8600,7 @@
         <v>72</v>
       </c>
       <c r="C324" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>181</v>
@@ -8253,7 +8614,7 @@
         <v>66</v>
       </c>
       <c r="C325" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>181</v>
@@ -8267,7 +8628,7 @@
         <v>49</v>
       </c>
       <c r="C326" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>181</v>
@@ -8281,7 +8642,7 @@
         <v>58</v>
       </c>
       <c r="C327" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>181</v>
@@ -8295,7 +8656,7 @@
         <v>85</v>
       </c>
       <c r="C328" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>181</v>
@@ -8309,7 +8670,7 @@
         <v>71</v>
       </c>
       <c r="C329" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>181</v>
@@ -8323,7 +8684,7 @@
         <v>70</v>
       </c>
       <c r="C330" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>181</v>
@@ -8337,7 +8698,7 @@
         <v>36</v>
       </c>
       <c r="C331" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>181</v>
@@ -8351,7 +8712,7 @@
         <v>52</v>
       </c>
       <c r="C332" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>181</v>
@@ -8365,7 +8726,7 @@
         <v>32</v>
       </c>
       <c r="C333" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>181</v>
@@ -8379,7 +8740,7 @@
         <v>63</v>
       </c>
       <c r="C334" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>181</v>
@@ -8393,7 +8754,7 @@
         <v>67</v>
       </c>
       <c r="C335" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>181</v>
@@ -8407,7 +8768,7 @@
         <v>61</v>
       </c>
       <c r="C336" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>181</v>
@@ -8421,7 +8782,7 @@
         <v>56</v>
       </c>
       <c r="C337" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>181</v>
@@ -8435,7 +8796,7 @@
         <v>58</v>
       </c>
       <c r="C338" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>181</v>
@@ -8449,7 +8810,7 @@
         <v>85</v>
       </c>
       <c r="C339" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>181</v>
@@ -8463,7 +8824,7 @@
         <v>71</v>
       </c>
       <c r="C340" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>181</v>
@@ -8505,7 +8866,7 @@
         <v>38</v>
       </c>
       <c r="C343" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>181</v>
@@ -8519,7 +8880,7 @@
         <v>86</v>
       </c>
       <c r="C344" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>181</v>
@@ -8603,7 +8964,7 @@
         <v>38</v>
       </c>
       <c r="C350" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>181</v>
@@ -8617,7 +8978,7 @@
         <v>86</v>
       </c>
       <c r="C351" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>181</v>
@@ -8659,7 +9020,7 @@
         <v>11</v>
       </c>
       <c r="C354" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>181</v>
@@ -8701,7 +9062,7 @@
         <v>65</v>
       </c>
       <c r="C357" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>181</v>
@@ -8715,7 +9076,7 @@
         <v>54</v>
       </c>
       <c r="C358" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>181</v>
@@ -8729,7 +9090,7 @@
         <v>34</v>
       </c>
       <c r="C359" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>181</v>
@@ -8743,7 +9104,7 @@
         <v>40</v>
       </c>
       <c r="C360" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>181</v>
@@ -8757,7 +9118,7 @@
         <v>44</v>
       </c>
       <c r="C361" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>181</v>
@@ -8771,7 +9132,7 @@
         <v>37</v>
       </c>
       <c r="C362" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>181</v>
@@ -8785,7 +9146,7 @@
         <v>55</v>
       </c>
       <c r="C363" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>181</v>
@@ -8799,7 +9160,7 @@
         <v>64</v>
       </c>
       <c r="C364" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>181</v>
@@ -8813,7 +9174,7 @@
         <v>43</v>
       </c>
       <c r="C365" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>181</v>
@@ -8911,7 +9272,7 @@
         <v>9</v>
       </c>
       <c r="C372" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>181</v>
@@ -9807,7 +10168,7 @@
         <v>81</v>
       </c>
       <c r="C436" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D436" s="1" t="s">
         <v>181</v>
@@ -9821,7 +10182,7 @@
         <v>79</v>
       </c>
       <c r="C437" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D437" s="1" t="s">
         <v>181</v>
@@ -9835,7 +10196,7 @@
         <v>76</v>
       </c>
       <c r="C438" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D438" s="1" t="s">
         <v>181</v>
@@ -9849,7 +10210,7 @@
         <v>13</v>
       </c>
       <c r="C439" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D439" s="1" t="s">
         <v>181</v>
@@ -9863,7 +10224,7 @@
         <v>84</v>
       </c>
       <c r="C440" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D440" s="1" t="s">
         <v>181</v>
@@ -9877,7 +10238,7 @@
         <v>24</v>
       </c>
       <c r="C441" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D441" s="1" t="s">
         <v>181</v>
@@ -9891,7 +10252,7 @@
         <v>19</v>
       </c>
       <c r="C442" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D442" s="1" t="s">
         <v>181</v>
@@ -9905,7 +10266,7 @@
         <v>35</v>
       </c>
       <c r="C443" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D443" s="1" t="s">
         <v>181</v>
@@ -9919,7 +10280,7 @@
         <v>65</v>
       </c>
       <c r="C444" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D444" s="1" t="s">
         <v>181</v>
@@ -9933,7 +10294,7 @@
         <v>6</v>
       </c>
       <c r="C445" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D445" s="1" t="s">
         <v>181</v>
@@ -9947,7 +10308,7 @@
         <v>54</v>
       </c>
       <c r="C446" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D446" s="1" t="s">
         <v>181</v>
@@ -9961,7 +10322,7 @@
         <v>69</v>
       </c>
       <c r="C447" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D447" s="1" t="s">
         <v>181</v>
@@ -9975,7 +10336,7 @@
         <v>59</v>
       </c>
       <c r="C448" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D448" s="1" t="s">
         <v>181</v>
@@ -9989,7 +10350,7 @@
         <v>57</v>
       </c>
       <c r="C449" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D449" s="1" t="s">
         <v>181</v>
@@ -10003,7 +10364,7 @@
         <v>60</v>
       </c>
       <c r="C450" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D450" s="1" t="s">
         <v>181</v>
@@ -10017,7 +10378,7 @@
         <v>62</v>
       </c>
       <c r="C451" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D451" s="1" t="s">
         <v>181</v>
@@ -10031,7 +10392,7 @@
         <v>66</v>
       </c>
       <c r="C452" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D452" s="1" t="s">
         <v>181</v>
@@ -10045,7 +10406,7 @@
         <v>34</v>
       </c>
       <c r="C453" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D453" s="1" t="s">
         <v>181</v>
@@ -10059,7 +10420,7 @@
         <v>15</v>
       </c>
       <c r="C454" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D454" s="1" t="s">
         <v>181</v>
@@ -10073,7 +10434,7 @@
         <v>51</v>
       </c>
       <c r="C455" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D455" s="1" t="s">
         <v>181</v>
@@ -10087,7 +10448,7 @@
         <v>40</v>
       </c>
       <c r="C456" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D456" s="1" t="s">
         <v>181</v>
@@ -10101,7 +10462,7 @@
         <v>29</v>
       </c>
       <c r="C457" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D457" s="1" t="s">
         <v>181</v>
@@ -10115,7 +10476,7 @@
         <v>82</v>
       </c>
       <c r="C458" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D458" s="1" t="s">
         <v>181</v>
@@ -10129,7 +10490,7 @@
         <v>72</v>
       </c>
       <c r="C459" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D459" s="1" t="s">
         <v>181</v>
@@ -10143,7 +10504,7 @@
         <v>75</v>
       </c>
       <c r="C460" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D460" s="1" t="s">
         <v>181</v>
@@ -10157,7 +10518,7 @@
         <v>44</v>
       </c>
       <c r="C461" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D461" s="1" t="s">
         <v>181</v>
@@ -10171,7 +10532,7 @@
         <v>9</v>
       </c>
       <c r="C462" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D462" s="1" t="s">
         <v>181</v>
@@ -10185,7 +10546,7 @@
         <v>70</v>
       </c>
       <c r="C463" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D463" s="1" t="s">
         <v>181</v>
@@ -10199,7 +10560,7 @@
         <v>80</v>
       </c>
       <c r="C464" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D464" s="1" t="s">
         <v>181</v>
@@ -10213,7 +10574,7 @@
         <v>78</v>
       </c>
       <c r="C465" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D465" s="1" t="s">
         <v>181</v>
@@ -10227,7 +10588,7 @@
         <v>77</v>
       </c>
       <c r="C466" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D466" s="1" t="s">
         <v>181</v>
@@ -10241,7 +10602,7 @@
         <v>73</v>
       </c>
       <c r="C467" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D467" s="1" t="s">
         <v>181</v>
@@ -10255,7 +10616,7 @@
         <v>83</v>
       </c>
       <c r="C468" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D468" s="1" t="s">
         <v>181</v>
@@ -10269,7 +10630,7 @@
         <v>46</v>
       </c>
       <c r="C469" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D469" s="1" t="s">
         <v>181</v>
@@ -10283,7 +10644,7 @@
         <v>38</v>
       </c>
       <c r="C470" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D470" s="1" t="s">
         <v>181</v>
@@ -10297,7 +10658,7 @@
         <v>36</v>
       </c>
       <c r="C471" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D471" s="1" t="s">
         <v>181</v>
@@ -10311,7 +10672,7 @@
         <v>52</v>
       </c>
       <c r="C472" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D472" s="1" t="s">
         <v>181</v>
@@ -10325,7 +10686,7 @@
         <v>49</v>
       </c>
       <c r="C473" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D473" s="1" t="s">
         <v>181</v>
@@ -10339,7 +10700,7 @@
         <v>32</v>
       </c>
       <c r="C474" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D474" s="1" t="s">
         <v>181</v>
@@ -10353,7 +10714,7 @@
         <v>63</v>
       </c>
       <c r="C475" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D475" s="1" t="s">
         <v>181</v>
@@ -10367,7 +10728,7 @@
         <v>67</v>
       </c>
       <c r="C476" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D476" s="1" t="s">
         <v>181</v>
@@ -10381,7 +10742,7 @@
         <v>61</v>
       </c>
       <c r="C477" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D477" s="1" t="s">
         <v>181</v>
@@ -10395,7 +10756,7 @@
         <v>56</v>
       </c>
       <c r="C478" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D478" s="1" t="s">
         <v>181</v>
@@ -10409,7 +10770,7 @@
         <v>58</v>
       </c>
       <c r="C479" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D479" s="1" t="s">
         <v>181</v>
@@ -10423,7 +10784,7 @@
         <v>37</v>
       </c>
       <c r="C480" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D480" s="1" t="s">
         <v>181</v>
@@ -10437,7 +10798,7 @@
         <v>55</v>
       </c>
       <c r="C481" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D481" s="1" t="s">
         <v>181</v>
@@ -10451,7 +10812,7 @@
         <v>64</v>
       </c>
       <c r="C482" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D482" s="1" t="s">
         <v>181</v>
@@ -10465,7 +10826,7 @@
         <v>43</v>
       </c>
       <c r="C483" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D483" s="1" t="s">
         <v>181</v>
@@ -10479,7 +10840,7 @@
         <v>50</v>
       </c>
       <c r="C484" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D484" s="1" t="s">
         <v>181</v>
@@ -10493,7 +10854,7 @@
         <v>86</v>
       </c>
       <c r="C485" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D485" s="1" t="s">
         <v>181</v>
@@ -10507,7 +10868,7 @@
         <v>85</v>
       </c>
       <c r="C486" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D486" s="1" t="s">
         <v>181</v>
@@ -10521,7 +10882,7 @@
         <v>71</v>
       </c>
       <c r="C487" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D487" s="1" t="s">
         <v>181</v>
@@ -10535,7 +10896,7 @@
         <v>74</v>
       </c>
       <c r="C488" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D488" s="1" t="s">
         <v>181</v>
@@ -10549,7 +10910,7 @@
         <v>11</v>
       </c>
       <c r="C489" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D489" s="1" t="s">
         <v>181</v>
@@ -10619,7 +10980,7 @@
         <v>36</v>
       </c>
       <c r="C494" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D494" s="1" t="s">
         <v>181</v>
@@ -10633,7 +10994,7 @@
         <v>81</v>
       </c>
       <c r="C495" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D495" s="1" t="s">
         <v>181</v>
@@ -10647,7 +11008,7 @@
         <v>19</v>
       </c>
       <c r="C496" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D496" s="1" t="s">
         <v>181</v>
@@ -10661,7 +11022,7 @@
         <v>69</v>
       </c>
       <c r="C497" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D497" s="1" t="s">
         <v>181</v>
@@ -10675,7 +11036,7 @@
         <v>60</v>
       </c>
       <c r="C498" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D498" s="1" t="s">
         <v>181</v>
@@ -10689,7 +11050,7 @@
         <v>29</v>
       </c>
       <c r="C499" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D499" s="1" t="s">
         <v>181</v>
@@ -10703,7 +11064,7 @@
         <v>82</v>
       </c>
       <c r="C500" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D500" s="1" t="s">
         <v>181</v>
@@ -10717,7 +11078,7 @@
         <v>44</v>
       </c>
       <c r="C501" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D501" s="1" t="s">
         <v>181</v>
@@ -10731,7 +11092,7 @@
         <v>80</v>
       </c>
       <c r="C502" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D502" s="1" t="s">
         <v>181</v>
@@ -10745,7 +11106,7 @@
         <v>78</v>
       </c>
       <c r="C503" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D503" s="1" t="s">
         <v>181</v>
@@ -10759,7 +11120,7 @@
         <v>77</v>
       </c>
       <c r="C504" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D504" s="1" t="s">
         <v>181</v>
@@ -10773,7 +11134,7 @@
         <v>36</v>
       </c>
       <c r="C505" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D505" s="1" t="s">
         <v>181</v>
@@ -10787,7 +11148,7 @@
         <v>63</v>
       </c>
       <c r="C506" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D506" s="1" t="s">
         <v>181</v>
@@ -10801,7 +11162,7 @@
         <v>67</v>
       </c>
       <c r="C507" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D507" s="1" t="s">
         <v>181</v>
@@ -10815,7 +11176,7 @@
         <v>61</v>
       </c>
       <c r="C508" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D508" s="1" t="s">
         <v>181</v>
@@ -10829,7 +11190,7 @@
         <v>58</v>
       </c>
       <c r="C509" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D509" s="1" t="s">
         <v>181</v>
@@ -10843,7 +11204,7 @@
         <v>64</v>
       </c>
       <c r="C510" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D510" s="1" t="s">
         <v>181</v>
@@ -10857,7 +11218,7 @@
         <v>85</v>
       </c>
       <c r="C511" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D511" s="1" t="s">
         <v>181</v>
@@ -10871,7 +11232,7 @@
         <v>71</v>
       </c>
       <c r="C512" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D512" s="1" t="s">
         <v>181</v>
@@ -10885,7 +11246,7 @@
         <v>19</v>
       </c>
       <c r="C513" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D513" s="1" t="s">
         <v>181</v>
@@ -10899,7 +11260,7 @@
         <v>57</v>
       </c>
       <c r="C514" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D514" s="1" t="s">
         <v>181</v>
@@ -10913,7 +11274,7 @@
         <v>11</v>
       </c>
       <c r="C515" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D515" s="1" t="s">
         <v>181</v>
@@ -10955,7 +11316,7 @@
         <v>37</v>
       </c>
       <c r="C518" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D518" s="1" t="s">
         <v>181</v>
@@ -11054,10 +11415,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -11065,10 +11426,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -11076,10 +11437,10 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -11098,10 +11459,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -11109,10 +11470,10 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -11175,10 +11536,10 @@
         <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -11197,10 +11558,10 @@
         <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -11219,10 +11580,10 @@
         <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -11252,10 +11613,10 @@
         <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C23" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -11285,10 +11646,10 @@
         <v>92</v>
       </c>
       <c r="B26" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C26" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -11296,10 +11657,10 @@
         <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -11384,10 +11745,10 @@
         <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C35" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -11395,10 +11756,10 @@
         <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C36" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -11417,10 +11778,10 @@
         <v>104</v>
       </c>
       <c r="B38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -11428,10 +11789,10 @@
         <v>105</v>
       </c>
       <c r="B39" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C39" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -11439,10 +11800,10 @@
         <v>106</v>
       </c>
       <c r="B40" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C40" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -11450,10 +11811,10 @@
         <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -11461,10 +11822,10 @@
         <v>108</v>
       </c>
       <c r="B42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -11505,10 +11866,10 @@
         <v>112</v>
       </c>
       <c r="B46" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C46" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -11516,10 +11877,10 @@
         <v>113</v>
       </c>
       <c r="B47" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C47" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -11527,10 +11888,10 @@
         <v>114</v>
       </c>
       <c r="B48" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C48" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -11538,10 +11899,10 @@
         <v>115</v>
       </c>
       <c r="B49" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C49" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -11549,10 +11910,10 @@
         <v>116</v>
       </c>
       <c r="B50" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C50" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -11736,10 +12097,10 @@
         <v>133</v>
       </c>
       <c r="B67" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C67" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -11780,10 +12141,10 @@
         <v>137</v>
       </c>
       <c r="B71" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C71" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -11791,10 +12152,10 @@
         <v>138</v>
       </c>
       <c r="B72" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C72" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -11813,10 +12174,10 @@
         <v>140</v>
       </c>
       <c r="B74" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C74" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -11835,10 +12196,10 @@
         <v>142</v>
       </c>
       <c r="B76" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C76" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -11846,10 +12207,10 @@
         <v>143</v>
       </c>
       <c r="B77" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C77" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -11857,10 +12218,10 @@
         <v>145</v>
       </c>
       <c r="B78" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C78" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -11868,10 +12229,10 @@
         <v>146</v>
       </c>
       <c r="B79" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C79" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -11901,10 +12262,10 @@
         <v>148</v>
       </c>
       <c r="B82" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C82" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -11967,10 +12328,10 @@
         <v>154</v>
       </c>
       <c r="B88" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C88" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -12000,10 +12361,10 @@
         <v>157</v>
       </c>
       <c r="B91" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C91" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -12033,10 +12394,10 @@
         <v>160</v>
       </c>
       <c r="B94" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C94" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -12044,10 +12405,10 @@
         <v>161</v>
       </c>
       <c r="B95" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C95" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -12110,10 +12471,10 @@
         <v>167</v>
       </c>
       <c r="B101" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C101" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -12154,10 +12515,10 @@
         <v>171</v>
       </c>
       <c r="B105" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C105" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -12176,10 +12537,10 @@
         <v>173</v>
       </c>
       <c r="B107" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C107" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -12187,10 +12548,10 @@
         <v>174</v>
       </c>
       <c r="B108" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C108" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -12198,10 +12559,10 @@
         <v>175</v>
       </c>
       <c r="B109" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C109" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -12231,10 +12592,10 @@
         <v>180</v>
       </c>
       <c r="B112" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C112" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -12261,524 +12622,1383 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="46.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B1" t="s">
         <v>440</v>
       </c>
-      <c r="B1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:2" hidden="1">
       <c r="A2" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" hidden="1">
       <c r="A3" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" hidden="1">
       <c r="A4" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" hidden="1">
       <c r="A5" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" hidden="1">
       <c r="A6" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" hidden="1">
       <c r="A7" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="B7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" hidden="1">
       <c r="A8" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="B8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" hidden="1">
       <c r="A9" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="B9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" hidden="1">
       <c r="A10" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" hidden="1">
       <c r="A11" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="B11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" hidden="1">
       <c r="A12" t="s">
         <v>353</v>
+      </c>
+      <c r="B12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" hidden="1">
       <c r="A14" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B14" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" hidden="1">
       <c r="A15" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="B15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" hidden="1">
       <c r="A16" t="s">
         <v>357</v>
       </c>
+      <c r="B16" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" hidden="1">
+      <c r="A17" t="s">
+        <v>358</v>
+      </c>
+      <c r="B17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1">
+      <c r="A18" t="s">
+        <v>359</v>
+      </c>
+      <c r="B18" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" hidden="1">
+      <c r="A19" t="s">
+        <v>360</v>
+      </c>
+      <c r="B19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" hidden="1">
+      <c r="A20" t="s">
+        <v>361</v>
+      </c>
+      <c r="B20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1">
+      <c r="A21" t="s">
+        <v>362</v>
+      </c>
+      <c r="B21" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1">
+      <c r="A22" t="s">
+        <v>363</v>
+      </c>
+      <c r="B22" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>364</v>
+      </c>
+      <c r="B23" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1">
+      <c r="A24" t="s">
+        <v>365</v>
+      </c>
+      <c r="B24" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1">
+      <c r="A25" t="s">
+        <v>366</v>
+      </c>
+      <c r="B25" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" hidden="1">
+      <c r="A26" t="s">
+        <v>367</v>
+      </c>
+      <c r="B26" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" hidden="1">
+      <c r="A27" t="s">
+        <v>368</v>
+      </c>
+      <c r="B27" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1">
+      <c r="A28" t="s">
+        <v>369</v>
+      </c>
+      <c r="B28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>370</v>
+      </c>
+      <c r="B29" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>371</v>
+      </c>
+      <c r="B30" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>372</v>
+      </c>
+      <c r="B31" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>373</v>
+      </c>
+      <c r="B32" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>374</v>
+      </c>
+      <c r="B33" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>375</v>
+      </c>
+      <c r="B34" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1">
+      <c r="A35" t="s">
+        <v>376</v>
+      </c>
+      <c r="B35" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" hidden="1">
+      <c r="A36" t="s">
+        <v>377</v>
+      </c>
+      <c r="B36" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" hidden="1">
+      <c r="A37" t="s">
+        <v>378</v>
+      </c>
+      <c r="B37" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1">
+      <c r="A38" t="s">
+        <v>379</v>
+      </c>
+      <c r="B38" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" hidden="1">
+      <c r="A39" t="s">
+        <v>380</v>
+      </c>
+      <c r="B39" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" hidden="1">
+      <c r="A40" t="s">
+        <v>381</v>
+      </c>
+      <c r="B40" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" hidden="1">
+      <c r="A41" t="s">
+        <v>382</v>
+      </c>
+      <c r="B41" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" hidden="1">
+      <c r="A42" t="s">
+        <v>383</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" hidden="1">
+      <c r="A43" t="s">
+        <v>384</v>
+      </c>
+      <c r="B43" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" hidden="1">
+      <c r="A44" t="s">
+        <v>385</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" hidden="1">
+      <c r="A45" t="s">
+        <v>386</v>
+      </c>
+      <c r="B45" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" hidden="1">
+      <c r="A46" t="s">
+        <v>387</v>
+      </c>
+      <c r="B46" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" hidden="1">
+      <c r="A47" t="s">
+        <v>388</v>
+      </c>
+      <c r="B47" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>389</v>
+      </c>
+      <c r="B48" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" hidden="1">
+      <c r="A49" t="s">
+        <v>390</v>
+      </c>
+      <c r="B49" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>391</v>
+      </c>
+      <c r="B50" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>392</v>
+      </c>
+      <c r="B51" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" hidden="1">
+      <c r="A52" t="s">
+        <v>393</v>
+      </c>
+      <c r="B52" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" hidden="1">
+      <c r="A53" t="s">
+        <v>394</v>
+      </c>
+      <c r="B53" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" hidden="1">
+      <c r="A54" t="s">
+        <v>395</v>
+      </c>
+      <c r="B54" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" hidden="1">
+      <c r="A55" t="s">
+        <v>396</v>
+      </c>
+      <c r="B55" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" hidden="1">
+      <c r="A56" t="s">
+        <v>397</v>
+      </c>
+      <c r="B56" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" hidden="1">
+      <c r="A57" t="s">
+        <v>398</v>
+      </c>
+      <c r="B57" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" hidden="1">
+      <c r="A58" t="s">
+        <v>399</v>
+      </c>
+      <c r="B58" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" hidden="1">
+      <c r="A59" t="s">
+        <v>400</v>
+      </c>
+      <c r="B59" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>401</v>
+      </c>
+      <c r="B60" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" hidden="1">
+      <c r="A61" t="s">
+        <v>402</v>
+      </c>
+      <c r="B61" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" hidden="1">
+      <c r="A62" t="s">
+        <v>403</v>
+      </c>
+      <c r="B62" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" hidden="1">
+      <c r="A63" t="s">
+        <v>404</v>
+      </c>
+      <c r="B63" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" hidden="1">
+      <c r="A64" t="s">
+        <v>405</v>
+      </c>
+      <c r="B64" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" hidden="1">
+      <c r="A65" t="s">
+        <v>406</v>
+      </c>
+      <c r="B65" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" hidden="1">
+      <c r="A66" t="s">
+        <v>407</v>
+      </c>
+      <c r="B66" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>408</v>
+      </c>
+      <c r="B67" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" hidden="1">
+      <c r="A68" t="s">
+        <v>409</v>
+      </c>
+      <c r="B68" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>410</v>
+      </c>
+      <c r="B69" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>411</v>
+      </c>
+      <c r="B70" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" hidden="1">
+      <c r="A71" t="s">
+        <v>412</v>
+      </c>
+      <c r="B71" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" hidden="1">
+      <c r="A72" t="s">
+        <v>413</v>
+      </c>
+      <c r="B72" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" hidden="1">
+      <c r="A73" t="s">
+        <v>414</v>
+      </c>
+      <c r="B73" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" hidden="1">
+      <c r="A74" t="s">
+        <v>415</v>
+      </c>
+      <c r="B74" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" hidden="1">
+      <c r="A75" t="s">
+        <v>416</v>
+      </c>
+      <c r="B75" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" hidden="1">
+      <c r="A76" t="s">
+        <v>417</v>
+      </c>
+      <c r="B76" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" hidden="1">
+      <c r="A77" t="s">
+        <v>418</v>
+      </c>
+      <c r="B77" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" hidden="1">
+      <c r="A78" t="s">
+        <v>419</v>
+      </c>
+      <c r="B78" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" hidden="1">
+      <c r="A79" t="s">
+        <v>420</v>
+      </c>
+      <c r="B79" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" hidden="1">
+      <c r="A80" t="s">
+        <v>421</v>
+      </c>
+      <c r="B80" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" hidden="1">
+      <c r="A81" t="s">
+        <v>422</v>
+      </c>
+      <c r="B81" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" hidden="1">
+      <c r="A82" t="s">
+        <v>423</v>
+      </c>
+      <c r="B82" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" hidden="1">
+      <c r="A83" t="s">
+        <v>424</v>
+      </c>
+      <c r="B83" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" hidden="1">
+      <c r="A84" t="s">
+        <v>425</v>
+      </c>
+      <c r="B84" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" hidden="1">
+      <c r="A85" t="s">
+        <v>426</v>
+      </c>
+      <c r="B85" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" hidden="1">
+      <c r="A86" t="s">
+        <v>427</v>
+      </c>
+      <c r="B86" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" hidden="1">
+      <c r="A87" t="s">
+        <v>428</v>
+      </c>
+      <c r="B87" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" hidden="1">
+      <c r="A88" t="s">
+        <v>429</v>
+      </c>
+      <c r="B88" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" hidden="1">
+      <c r="A89" t="s">
+        <v>430</v>
+      </c>
+      <c r="B89" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" hidden="1">
+      <c r="A90" t="s">
+        <v>431</v>
+      </c>
+      <c r="B90" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" hidden="1">
+      <c r="A91" t="s">
+        <v>432</v>
+      </c>
+      <c r="B91" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" hidden="1">
+      <c r="A92" t="s">
+        <v>433</v>
+      </c>
+      <c r="B92" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" hidden="1">
+      <c r="A93" t="s">
+        <v>434</v>
+      </c>
+      <c r="B93" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" hidden="1">
+      <c r="A94" t="s">
+        <v>435</v>
+      </c>
+      <c r="B94" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" hidden="1">
+      <c r="A95" t="s">
+        <v>436</v>
+      </c>
+      <c r="B95" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>437</v>
+      </c>
+      <c r="B96" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>438</v>
+      </c>
+      <c r="B97" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" hidden="1"/>
+    <row r="99" spans="1:2" hidden="1"/>
+    <row r="100" spans="1:2" hidden="1"/>
+    <row r="101" spans="1:2" hidden="1"/>
+  </sheetData>
+  <autoFilter ref="A1:B101">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="DAN"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A111"/>
+  <sheetViews>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="33.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>358</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>359</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>360</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>361</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>362</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>363</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>364</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>365</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>366</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>367</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>368</v>
+        <v>466</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>369</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>370</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>371</v>
+        <v>469</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>372</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>373</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>374</v>
+        <v>470</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>375</v>
+        <v>471</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>376</v>
+        <v>472</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>377</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>378</v>
+        <v>473</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>379</v>
+        <v>474</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>380</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>381</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>382</v>
+        <v>476</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>383</v>
+        <v>477</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>384</v>
+        <v>478</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>385</v>
+        <v>479</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>386</v>
+        <v>480</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>387</v>
+        <v>481</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>388</v>
+        <v>482</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>389</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>390</v>
+        <v>483</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>391</v>
+        <v>484</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>392</v>
+        <v>485</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>393</v>
+        <v>486</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>394</v>
+        <v>487</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>395</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>396</v>
+        <v>489</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>397</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>398</v>
+        <v>491</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>399</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>400</v>
+        <v>493</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>401</v>
+        <v>494</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>402</v>
+        <v>495</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>403</v>
+        <v>496</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>404</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>405</v>
+        <v>497</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>406</v>
+        <v>498</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>407</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>408</v>
+        <v>499</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>409</v>
+        <v>447</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>410</v>
+        <v>500</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>411</v>
+        <v>501</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>412</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>412</v>
+        <v>502</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>413</v>
+        <v>503</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>413</v>
+        <v>269</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>414</v>
+        <v>504</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>415</v>
+        <v>272</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>416</v>
+        <v>505</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>417</v>
+        <v>506</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>418</v>
+        <v>507</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>418</v>
+        <v>508</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>419</v>
+        <v>509</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>420</v>
+        <v>510</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>421</v>
+        <v>511</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>422</v>
+        <v>512</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>423</v>
+        <v>513</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>424</v>
+        <v>514</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>425</v>
+        <v>515</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>426</v>
+        <v>271</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>427</v>
+        <v>516</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>428</v>
+        <v>517</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>429</v>
+        <v>518</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>430</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>431</v>
+        <v>519</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>432</v>
+        <v>279</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>433</v>
+        <v>520</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>434</v>
+        <v>521</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>435</v>
+        <v>281</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>436</v>
+        <v>522</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>438</v>
+        <v>284</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>439</v>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/flow_charts/data_types_audit.xlsx
+++ b/flow_charts/data_types_audit.xlsx
@@ -1643,9 +1643,6 @@
     <t>EventUserUser</t>
   </si>
   <si>
-    <t>DAN</t>
-  </si>
-  <si>
     <t>GroupInviteGroup</t>
   </si>
   <si>
@@ -1719,6 +1716,9 @@
   </si>
   <si>
     <t>group_with_membership</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -1770,8 +1770,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1793,7 +1801,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1801,6 +1809,10 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1808,6 +1820,10 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -12622,11 +12638,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+      <selection activeCell="B1" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12643,7 +12658,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>343</v>
       </c>
@@ -12651,7 +12666,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>344</v>
       </c>
@@ -12659,7 +12674,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>345</v>
       </c>
@@ -12667,7 +12682,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>346</v>
       </c>
@@ -12675,7 +12690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>347</v>
       </c>
@@ -12683,7 +12698,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>348</v>
       </c>
@@ -12691,7 +12706,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>349</v>
       </c>
@@ -12699,7 +12714,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>350</v>
       </c>
@@ -12707,7 +12722,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>351</v>
       </c>
@@ -12715,7 +12730,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>352</v>
       </c>
@@ -12723,7 +12738,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>353</v>
       </c>
@@ -12736,10 +12751,10 @@
         <v>354</v>
       </c>
       <c r="B13" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" hidden="1">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>355</v>
       </c>
@@ -12747,7 +12762,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>356</v>
       </c>
@@ -12755,7 +12770,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>357</v>
       </c>
@@ -12763,7 +12778,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>358</v>
       </c>
@@ -12771,7 +12786,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>359</v>
       </c>
@@ -12779,7 +12794,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>360</v>
       </c>
@@ -12787,7 +12802,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>361</v>
       </c>
@@ -12795,7 +12810,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>362</v>
       </c>
@@ -12803,7 +12818,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>363</v>
       </c>
@@ -12816,10 +12831,10 @@
         <v>364</v>
       </c>
       <c r="B23" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" hidden="1">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>365</v>
       </c>
@@ -12827,7 +12842,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>366</v>
       </c>
@@ -12835,7 +12850,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>367</v>
       </c>
@@ -12843,7 +12858,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>368</v>
       </c>
@@ -12851,7 +12866,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>369</v>
       </c>
@@ -12864,7 +12879,7 @@
         <v>370</v>
       </c>
       <c r="B29" t="s">
-        <v>537</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -12872,7 +12887,7 @@
         <v>371</v>
       </c>
       <c r="B30" t="s">
-        <v>537</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -12880,7 +12895,7 @@
         <v>372</v>
       </c>
       <c r="B31" t="s">
-        <v>537</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -12888,7 +12903,7 @@
         <v>373</v>
       </c>
       <c r="B32" t="s">
-        <v>537</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -12896,7 +12911,7 @@
         <v>374</v>
       </c>
       <c r="B33" t="s">
-        <v>537</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -12904,66 +12919,66 @@
         <v>375</v>
       </c>
       <c r="B34" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" hidden="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>376</v>
       </c>
       <c r="B35" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" hidden="1">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>377</v>
       </c>
       <c r="B36" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" hidden="1">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>378</v>
       </c>
       <c r="B37" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" hidden="1">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>379</v>
       </c>
       <c r="B38" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" hidden="1">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>380</v>
       </c>
       <c r="B39" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" hidden="1">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>381</v>
       </c>
       <c r="B40" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" hidden="1">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>382</v>
       </c>
       <c r="B41" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" hidden="1">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>383</v>
       </c>
@@ -12971,7 +12986,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>384</v>
       </c>
@@ -12979,7 +12994,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>385</v>
       </c>
@@ -12987,28 +13002,28 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>386</v>
       </c>
       <c r="B45" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" hidden="1">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>387</v>
       </c>
       <c r="B46" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" hidden="1">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>388</v>
       </c>
       <c r="B47" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -13016,10 +13031,10 @@
         <v>389</v>
       </c>
       <c r="B48" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" hidden="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>390</v>
       </c>
@@ -13032,7 +13047,7 @@
         <v>391</v>
       </c>
       <c r="B50" t="s">
-        <v>537</v>
+        <v>562</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -13040,26 +13055,26 @@
         <v>392</v>
       </c>
       <c r="B51" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" hidden="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>393</v>
       </c>
       <c r="B52" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" hidden="1">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>394</v>
       </c>
       <c r="B53" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" hidden="1">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>395</v>
       </c>
@@ -13067,23 +13082,23 @@
         <v>514</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>396</v>
       </c>
       <c r="B55" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" hidden="1">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>397</v>
       </c>
       <c r="B56" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" hidden="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>398</v>
       </c>
@@ -13091,20 +13106,20 @@
         <v>271</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>399</v>
       </c>
       <c r="B58" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" hidden="1">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>400</v>
       </c>
       <c r="B59" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -13112,26 +13127,26 @@
         <v>401</v>
       </c>
       <c r="B60" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" hidden="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>402</v>
       </c>
       <c r="B61" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" hidden="1">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>403</v>
       </c>
       <c r="B62" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" hidden="1">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>404</v>
       </c>
@@ -13139,28 +13154,28 @@
         <v>279</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>405</v>
       </c>
       <c r="B64" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" hidden="1">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>406</v>
       </c>
       <c r="B65" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" hidden="1">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>407</v>
       </c>
       <c r="B66" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -13168,15 +13183,15 @@
         <v>408</v>
       </c>
       <c r="B67" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" hidden="1">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>409</v>
       </c>
       <c r="B68" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -13184,7 +13199,7 @@
         <v>410</v>
       </c>
       <c r="B69" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -13192,42 +13207,42 @@
         <v>411</v>
       </c>
       <c r="B70" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" hidden="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>412</v>
       </c>
       <c r="B71" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" hidden="1">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>413</v>
       </c>
       <c r="B72" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" hidden="1">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>414</v>
       </c>
       <c r="B73" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" hidden="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>415</v>
       </c>
       <c r="B74" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" hidden="1">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>416</v>
       </c>
@@ -13235,23 +13250,23 @@
         <v>283</v>
       </c>
     </row>
-    <row r="76" spans="1:2" hidden="1">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>417</v>
       </c>
       <c r="B76" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" hidden="1">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>418</v>
       </c>
       <c r="B77" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" hidden="1">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>419</v>
       </c>
@@ -13259,7 +13274,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="79" spans="1:2" hidden="1">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>420</v>
       </c>
@@ -13267,15 +13282,15 @@
         <v>456</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>421</v>
       </c>
       <c r="B80" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" hidden="1">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>422</v>
       </c>
@@ -13283,23 +13298,23 @@
         <v>463</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>423</v>
       </c>
       <c r="B82" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" hidden="1">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>424</v>
       </c>
       <c r="B83" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" hidden="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>425</v>
       </c>
@@ -13307,7 +13322,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="85" spans="1:2" hidden="1">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>426</v>
       </c>
@@ -13315,7 +13330,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="86" spans="1:2" hidden="1">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>427</v>
       </c>
@@ -13323,7 +13338,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>428</v>
       </c>
@@ -13331,15 +13346,15 @@
         <v>495</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>429</v>
       </c>
       <c r="B88" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" hidden="1">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>430</v>
       </c>
@@ -13347,7 +13362,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>431</v>
       </c>
@@ -13355,7 +13370,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>432</v>
       </c>
@@ -13363,7 +13378,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="92" spans="1:2" hidden="1">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>433</v>
       </c>
@@ -13371,7 +13386,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>434</v>
       </c>
@@ -13379,7 +13394,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>435</v>
       </c>
@@ -13387,7 +13402,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>436</v>
       </c>
@@ -13400,7 +13415,7 @@
         <v>437</v>
       </c>
       <c r="B96" t="s">
-        <v>537</v>
+        <v>562</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -13408,21 +13423,11 @@
         <v>438</v>
       </c>
       <c r="B97" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" hidden="1"/>
-    <row r="99" spans="1:2" hidden="1"/>
-    <row r="100" spans="1:2" hidden="1"/>
-    <row r="101" spans="1:2" hidden="1"/>
+        <v>562</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B101">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="DAN"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:B101"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -13437,7 +13442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A111"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
